--- a/data/pca/factorExposure/factorExposure_2016-12-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01312992302320861</v>
+        <v>0.01323118080150845</v>
       </c>
       <c r="C2">
-        <v>0.04354908032247063</v>
+        <v>0.04170981346278105</v>
       </c>
       <c r="D2">
-        <v>-0.02262861324440392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05940460715272033</v>
+      </c>
+      <c r="E2">
+        <v>-0.0140617780211662</v>
+      </c>
+      <c r="F2">
+        <v>0.09721415499419415</v>
+      </c>
+      <c r="G2">
+        <v>-0.03535814272740262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05885507022427808</v>
+        <v>0.03620514169278106</v>
       </c>
       <c r="C3">
-        <v>0.1043246300271269</v>
+        <v>0.0885870875129125</v>
       </c>
       <c r="D3">
-        <v>-0.0384189900050271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.1019346792030291</v>
+      </c>
+      <c r="E3">
+        <v>-0.02702217978099706</v>
+      </c>
+      <c r="F3">
+        <v>0.1061913794613552</v>
+      </c>
+      <c r="G3">
+        <v>0.07025272661095833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06109315660514458</v>
+        <v>0.05561110200510647</v>
       </c>
       <c r="C4">
-        <v>0.06495429170260807</v>
+        <v>0.05988702395490189</v>
       </c>
       <c r="D4">
-        <v>-0.003544477784038139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05609420357887295</v>
+      </c>
+      <c r="E4">
+        <v>-0.006025099048128121</v>
+      </c>
+      <c r="F4">
+        <v>0.09515094021711315</v>
+      </c>
+      <c r="G4">
+        <v>0.02746303843061043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02649814128508116</v>
+        <v>0.03499249812095671</v>
       </c>
       <c r="C6">
-        <v>0.05307803002762243</v>
+        <v>0.03825012993900615</v>
       </c>
       <c r="D6">
-        <v>-0.007168570172470236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06362719781517687</v>
+      </c>
+      <c r="E6">
+        <v>-0.01311930082772984</v>
+      </c>
+      <c r="F6">
+        <v>0.08893919128010326</v>
+      </c>
+      <c r="G6">
+        <v>0.009415969182382916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01866549324521085</v>
+        <v>0.02057787512053312</v>
       </c>
       <c r="C7">
-        <v>0.04472440466811526</v>
+        <v>0.03575422008033296</v>
       </c>
       <c r="D7">
-        <v>0.01001586877207156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03089337148034896</v>
+      </c>
+      <c r="E7">
+        <v>0.001536394294400704</v>
+      </c>
+      <c r="F7">
+        <v>0.123344680739083</v>
+      </c>
+      <c r="G7">
+        <v>-0.008983345190339179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007190515581750427</v>
+        <v>0.005443827450588784</v>
       </c>
       <c r="C8">
-        <v>0.00825507042466395</v>
+        <v>0.01827735510184874</v>
       </c>
       <c r="D8">
-        <v>-0.01826023005921049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03710316064445163</v>
+      </c>
+      <c r="E8">
+        <v>-0.005847186538289124</v>
+      </c>
+      <c r="F8">
+        <v>0.06947264117395235</v>
+      </c>
+      <c r="G8">
+        <v>0.006338923168257115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02519591235466335</v>
+        <v>0.03451651187953884</v>
       </c>
       <c r="C9">
-        <v>0.04409198433406506</v>
+        <v>0.04557888394470699</v>
       </c>
       <c r="D9">
-        <v>0.00335844461673109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04009463524882691</v>
+      </c>
+      <c r="E9">
+        <v>-0.003379327601830517</v>
+      </c>
+      <c r="F9">
+        <v>0.09954625131829455</v>
+      </c>
+      <c r="G9">
+        <v>0.009413810924140294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0805432646707137</v>
+        <v>0.09251447168690441</v>
       </c>
       <c r="C10">
-        <v>-0.1979170647650833</v>
+        <v>-0.1960253134467338</v>
       </c>
       <c r="D10">
-        <v>-0.02041336847589883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01393785658101378</v>
+      </c>
+      <c r="E10">
+        <v>-0.02917900836362701</v>
+      </c>
+      <c r="F10">
+        <v>0.05278683627921224</v>
+      </c>
+      <c r="G10">
+        <v>8.222935770694332e-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03879604904242039</v>
+        <v>0.03621710841163342</v>
       </c>
       <c r="C11">
-        <v>0.05287947211408026</v>
+        <v>0.05055022580109731</v>
       </c>
       <c r="D11">
-        <v>0.004941560257947198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02861924922541818</v>
+      </c>
+      <c r="E11">
+        <v>0.01542075560313734</v>
+      </c>
+      <c r="F11">
+        <v>0.07286084685895416</v>
+      </c>
+      <c r="G11">
+        <v>0.003813453078055119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03373980739488881</v>
+        <v>0.03675778581545388</v>
       </c>
       <c r="C12">
-        <v>0.04409822709954592</v>
+        <v>0.04633074913310228</v>
       </c>
       <c r="D12">
-        <v>0.007839056269188181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01940897717290632</v>
+      </c>
+      <c r="E12">
+        <v>0.005160302560265561</v>
+      </c>
+      <c r="F12">
+        <v>0.0733117922179732</v>
+      </c>
+      <c r="G12">
+        <v>0.001900257722187495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.005858727793058477</v>
+        <v>0.01095726847126497</v>
       </c>
       <c r="C13">
-        <v>0.03860272877214384</v>
+        <v>0.03742033829846054</v>
       </c>
       <c r="D13">
-        <v>-0.01868241917393098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06711320536739833</v>
+      </c>
+      <c r="E13">
+        <v>-0.02162770045850064</v>
+      </c>
+      <c r="F13">
+        <v>0.1370245783986539</v>
+      </c>
+      <c r="G13">
+        <v>0.008769785704799634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006362115233585176</v>
+        <v>0.008447726382141163</v>
       </c>
       <c r="C14">
-        <v>0.02746620830404117</v>
+        <v>0.02766568720935963</v>
       </c>
       <c r="D14">
-        <v>0.01023889663504716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0248279846889871</v>
+      </c>
+      <c r="E14">
+        <v>-0.006081434127245148</v>
+      </c>
+      <c r="F14">
+        <v>0.1146119334497612</v>
+      </c>
+      <c r="G14">
+        <v>-0.0155330925803948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03346361974801768</v>
+        <v>0.03508390182722144</v>
       </c>
       <c r="C16">
-        <v>0.03993866054248627</v>
+        <v>0.04345460099320431</v>
       </c>
       <c r="D16">
-        <v>0.0003520782123845901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02461953676191011</v>
+      </c>
+      <c r="E16">
+        <v>-0.002161727423421078</v>
+      </c>
+      <c r="F16">
+        <v>0.0788034125598837</v>
+      </c>
+      <c r="G16">
+        <v>-0.009451169953363134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03179187654633566</v>
+        <v>0.0192635998807271</v>
       </c>
       <c r="C19">
-        <v>0.05608591695990274</v>
+        <v>0.04739327038056516</v>
       </c>
       <c r="D19">
-        <v>-0.03871998055679644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1020753103555218</v>
+      </c>
+      <c r="E19">
+        <v>-0.02422988494998054</v>
+      </c>
+      <c r="F19">
+        <v>0.1380252805662597</v>
+      </c>
+      <c r="G19">
+        <v>-0.02227209499836028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01174637792894271</v>
+        <v>0.01608065585555549</v>
       </c>
       <c r="C20">
-        <v>0.04387850999815654</v>
+        <v>0.03682085178289758</v>
       </c>
       <c r="D20">
-        <v>-0.02265003708149316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04867642404664548</v>
+      </c>
+      <c r="E20">
+        <v>-0.03045605102052541</v>
+      </c>
+      <c r="F20">
+        <v>0.1068561636305522</v>
+      </c>
+      <c r="G20">
+        <v>-0.008393351187655197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.00478122247810362</v>
+        <v>0.009746067515210217</v>
       </c>
       <c r="C21">
-        <v>0.03612989143502218</v>
+        <v>0.03545482382287541</v>
       </c>
       <c r="D21">
-        <v>-0.03097470731552741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06777027377451982</v>
+      </c>
+      <c r="E21">
+        <v>-0.02613405801665302</v>
+      </c>
+      <c r="F21">
+        <v>0.1602808480845963</v>
+      </c>
+      <c r="G21">
+        <v>-0.007462630173538522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002628715541239496</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01398313683363459</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02488592276734686</v>
+      </c>
+      <c r="E22">
+        <v>0.001227383325300528</v>
+      </c>
+      <c r="F22">
+        <v>0.01574859118382819</v>
+      </c>
+      <c r="G22">
+        <v>0.03424529412988059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002647484455055469</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01393275487630626</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02467839692754354</v>
+      </c>
+      <c r="E23">
+        <v>0.0009072361073561649</v>
+      </c>
+      <c r="F23">
+        <v>0.01555718729175591</v>
+      </c>
+      <c r="G23">
+        <v>0.03430033573586613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02689472668914931</v>
+        <v>0.03112732637219509</v>
       </c>
       <c r="C24">
-        <v>0.04678162389671587</v>
+        <v>0.04959533689471988</v>
       </c>
       <c r="D24">
-        <v>0.008734841700375457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02370207949527025</v>
+      </c>
+      <c r="E24">
+        <v>0.006675295432934173</v>
+      </c>
+      <c r="F24">
+        <v>0.0814012406177832</v>
+      </c>
+      <c r="G24">
+        <v>-0.003293852765787102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04454391342760303</v>
+        <v>0.04300640718172685</v>
       </c>
       <c r="C25">
-        <v>0.05406522081612725</v>
+        <v>0.05586781841466092</v>
       </c>
       <c r="D25">
-        <v>0.01919081284381968</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01739832630644155</v>
+      </c>
+      <c r="E25">
+        <v>0.006894953141623624</v>
+      </c>
+      <c r="F25">
+        <v>0.08923302946592797</v>
+      </c>
+      <c r="G25">
+        <v>0.01313191508094401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.007581087146278797</v>
+        <v>0.0146353906558514</v>
       </c>
       <c r="C26">
-        <v>0.01100324746734248</v>
+        <v>0.01090296700521964</v>
       </c>
       <c r="D26">
-        <v>-0.004145386746220548</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02049363907729447</v>
+      </c>
+      <c r="E26">
+        <v>-0.006210375321196651</v>
+      </c>
+      <c r="F26">
+        <v>0.08481495866599524</v>
+      </c>
+      <c r="G26">
+        <v>-0.02260170225127763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09595896573032626</v>
+        <v>0.1242633349443284</v>
       </c>
       <c r="C28">
-        <v>-0.2256420664934136</v>
+        <v>-0.246257399962624</v>
       </c>
       <c r="D28">
-        <v>-0.01219204657941965</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.003163595097278505</v>
+      </c>
+      <c r="E28">
+        <v>-0.03266048285735938</v>
+      </c>
+      <c r="F28">
+        <v>0.06029667261282518</v>
+      </c>
+      <c r="G28">
+        <v>0.007800192064961319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01044125707665381</v>
+        <v>0.008165536454001079</v>
       </c>
       <c r="C29">
-        <v>0.02077906937058728</v>
+        <v>0.02303400454734321</v>
       </c>
       <c r="D29">
-        <v>0.009978544266563484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01557279670962006</v>
+      </c>
+      <c r="E29">
+        <v>-0.01024448415966606</v>
+      </c>
+      <c r="F29">
+        <v>0.1062239046850932</v>
+      </c>
+      <c r="G29">
+        <v>-0.001857209952665529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03755782604576211</v>
+        <v>0.03916566906127748</v>
       </c>
       <c r="C30">
-        <v>0.07239405067322335</v>
+        <v>0.06380793756325638</v>
       </c>
       <c r="D30">
-        <v>0.001311513395545011</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0888996630054371</v>
+      </c>
+      <c r="E30">
+        <v>0.01714178699972109</v>
+      </c>
+      <c r="F30">
+        <v>0.1140502729196993</v>
+      </c>
+      <c r="G30">
+        <v>-0.02665160303176289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04015800830550768</v>
+        <v>0.05632652330624608</v>
       </c>
       <c r="C31">
-        <v>0.02999133661334302</v>
+        <v>0.04203626547102795</v>
       </c>
       <c r="D31">
-        <v>0.01137797054898279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.002388108429584423</v>
+      </c>
+      <c r="E31">
+        <v>-0.0327890363275856</v>
+      </c>
+      <c r="F31">
+        <v>0.09677889175242617</v>
+      </c>
+      <c r="G31">
+        <v>0.02633808487168538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005792317246312799</v>
+        <v>0.002788016814465043</v>
       </c>
       <c r="C32">
-        <v>0.03490403897271421</v>
+        <v>0.02369924013366915</v>
       </c>
       <c r="D32">
-        <v>-0.01247787184756902</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04644508562286915</v>
+      </c>
+      <c r="E32">
+        <v>0.01044754048748415</v>
+      </c>
+      <c r="F32">
+        <v>0.07992877531553945</v>
+      </c>
+      <c r="G32">
+        <v>-0.01263916834353028</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02794355189571033</v>
+        <v>0.02654328762073178</v>
       </c>
       <c r="C33">
-        <v>0.05580515510606297</v>
+        <v>0.04629169786283829</v>
       </c>
       <c r="D33">
-        <v>-0.009055561449011077</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07355428091124319</v>
+      </c>
+      <c r="E33">
+        <v>-0.002875060602603504</v>
+      </c>
+      <c r="F33">
+        <v>0.1572858222865287</v>
+      </c>
+      <c r="G33">
+        <v>0.008095327051482472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05238755083129534</v>
+        <v>0.04295874757768515</v>
       </c>
       <c r="C34">
-        <v>0.05133030876718805</v>
+        <v>0.05995963421157744</v>
       </c>
       <c r="D34">
-        <v>0.01412088123373859</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02244873383652792</v>
+      </c>
+      <c r="E34">
+        <v>0.02067327497356755</v>
+      </c>
+      <c r="F34">
+        <v>0.07818758719834487</v>
+      </c>
+      <c r="G34">
+        <v>0.0009114766970201625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007462309380595233</v>
+        <v>0.0150874279795932</v>
       </c>
       <c r="C36">
-        <v>0.005485716104733866</v>
+        <v>0.006432912367645655</v>
       </c>
       <c r="D36">
-        <v>0.003871621495577202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02315385658131816</v>
+      </c>
+      <c r="E36">
+        <v>-0.01053290670379422</v>
+      </c>
+      <c r="F36">
+        <v>0.09823318045647715</v>
+      </c>
+      <c r="G36">
+        <v>0.000415141507934193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0376871447354357</v>
+        <v>0.03151751646568042</v>
       </c>
       <c r="C38">
-        <v>0.019772164533222</v>
+        <v>0.0221363819544107</v>
       </c>
       <c r="D38">
-        <v>0.006484869907668753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02147115724310542</v>
+      </c>
+      <c r="E38">
+        <v>-0.01406379877785885</v>
+      </c>
+      <c r="F38">
+        <v>0.09077653512943903</v>
+      </c>
+      <c r="G38">
+        <v>0.006533597480356968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03520007797133341</v>
+        <v>0.0373530719003887</v>
       </c>
       <c r="C39">
-        <v>0.08439612179047962</v>
+        <v>0.07484274452553177</v>
       </c>
       <c r="D39">
-        <v>-0.003696894479436908</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04598030089437919</v>
+      </c>
+      <c r="E39">
+        <v>0.01584883221745393</v>
+      </c>
+      <c r="F39">
+        <v>0.0892291104620344</v>
+      </c>
+      <c r="G39">
+        <v>-0.02992746543439839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01625909066072236</v>
+        <v>0.01657585215216072</v>
       </c>
       <c r="C40">
-        <v>0.02737748255882815</v>
+        <v>0.03641680489444834</v>
       </c>
       <c r="D40">
-        <v>-0.01900310279053585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03658856390760884</v>
+      </c>
+      <c r="E40">
+        <v>-0.0301642602610549</v>
+      </c>
+      <c r="F40">
+        <v>0.122756428512332</v>
+      </c>
+      <c r="G40">
+        <v>0.04205216434931824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0109794414159565</v>
+        <v>0.01839957082136303</v>
       </c>
       <c r="C41">
-        <v>-0.00085981813360942</v>
+        <v>-0.001808468448603431</v>
       </c>
       <c r="D41">
-        <v>0.005640955031700888</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01859785809480471</v>
+      </c>
+      <c r="E41">
+        <v>-0.01472909342949895</v>
+      </c>
+      <c r="F41">
+        <v>0.08970994945783674</v>
+      </c>
+      <c r="G41">
+        <v>-0.005386496152335041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.004386305322982338</v>
+        <v>0.0034107676560256</v>
       </c>
       <c r="C42">
-        <v>0.04908094853890175</v>
+        <v>0.02692110627690558</v>
       </c>
       <c r="D42">
-        <v>-0.02088111191308408</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0009542817744123373</v>
+      </c>
+      <c r="E42">
+        <v>-0.02517756370394452</v>
+      </c>
+      <c r="F42">
+        <v>-0.03349456104389171</v>
+      </c>
+      <c r="G42">
+        <v>-0.009624881336832258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02983887397295592</v>
+        <v>0.03274531669336152</v>
       </c>
       <c r="C43">
-        <v>0.00953738727269483</v>
+        <v>0.01095987088484561</v>
       </c>
       <c r="D43">
-        <v>0.004436765465750809</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03740457855184508</v>
+      </c>
+      <c r="E43">
+        <v>-0.01203278076553146</v>
+      </c>
+      <c r="F43">
+        <v>0.1161562551464487</v>
+      </c>
+      <c r="G43">
+        <v>0.01619079158295275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02083994421527658</v>
+        <v>0.01491883323741014</v>
       </c>
       <c r="C44">
-        <v>0.0540611434316112</v>
+        <v>0.05065069080477216</v>
       </c>
       <c r="D44">
-        <v>-0.007238007130702467</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04331218872242298</v>
+      </c>
+      <c r="E44">
+        <v>-0.02088956063212079</v>
+      </c>
+      <c r="F44">
+        <v>0.1166273278876064</v>
+      </c>
+      <c r="G44">
+        <v>-0.007679132726051819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.00117275828575536</v>
+        <v>0.01000145646156077</v>
       </c>
       <c r="C46">
-        <v>0.01260029685729244</v>
+        <v>0.01807995340706881</v>
       </c>
       <c r="D46">
-        <v>0.01947716163063712</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.008572803734073332</v>
+      </c>
+      <c r="E46">
+        <v>-0.01563587280198475</v>
+      </c>
+      <c r="F46">
+        <v>0.114393719485482</v>
+      </c>
+      <c r="G46">
+        <v>-0.0081731442450209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07334081870070569</v>
+        <v>0.08627118225993995</v>
       </c>
       <c r="C47">
-        <v>0.06601219640309694</v>
+        <v>0.07175760497170981</v>
       </c>
       <c r="D47">
-        <v>0.008218848166512971</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00731568781162455</v>
+      </c>
+      <c r="E47">
+        <v>-0.04176921243307013</v>
+      </c>
+      <c r="F47">
+        <v>0.09113974983213399</v>
+      </c>
+      <c r="G47">
+        <v>0.03221307146524746</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01548435732287159</v>
+        <v>0.01665165732179602</v>
       </c>
       <c r="C48">
-        <v>0.008685597509304591</v>
+        <v>0.01242529796187747</v>
       </c>
       <c r="D48">
-        <v>0.007997014494861406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01661974974945999</v>
+      </c>
+      <c r="E48">
+        <v>-0.01969512646338002</v>
+      </c>
+      <c r="F48">
+        <v>0.1070204407917172</v>
+      </c>
+      <c r="G48">
+        <v>-0.004353787508740214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07935853497950011</v>
+        <v>0.07865570329259144</v>
       </c>
       <c r="C50">
-        <v>0.06123685293313556</v>
+        <v>0.06813735312671464</v>
       </c>
       <c r="D50">
-        <v>0.01516005986888941</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0006151509807748067</v>
+      </c>
+      <c r="E50">
+        <v>-0.04127742470214495</v>
+      </c>
+      <c r="F50">
+        <v>0.1022454759301142</v>
+      </c>
+      <c r="G50">
+        <v>0.05763348791825781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01802386453923991</v>
+        <v>0.01266484985722532</v>
       </c>
       <c r="C51">
-        <v>0.03985027311163232</v>
+        <v>0.03180432153606048</v>
       </c>
       <c r="D51">
-        <v>0.002655307333420585</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04232896748944889</v>
+      </c>
+      <c r="E51">
+        <v>0.007424564294025509</v>
+      </c>
+      <c r="F51">
+        <v>0.1059301177543825</v>
+      </c>
+      <c r="G51">
+        <v>-0.01881001263145091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1006738301999721</v>
+        <v>0.08698349192134401</v>
       </c>
       <c r="C53">
-        <v>0.07201023090819791</v>
+        <v>0.08537949442040343</v>
       </c>
       <c r="D53">
-        <v>0.03423594423619324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02798142246837745</v>
+      </c>
+      <c r="E53">
+        <v>-0.04390037089498737</v>
+      </c>
+      <c r="F53">
+        <v>0.09187696690420094</v>
+      </c>
+      <c r="G53">
+        <v>0.04568167270194624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02773955360123511</v>
+        <v>0.03213327915054175</v>
       </c>
       <c r="C54">
-        <v>0.0012630637981745</v>
+        <v>0.01824680465261756</v>
       </c>
       <c r="D54">
-        <v>-0.004288607279048984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02876606504903593</v>
+      </c>
+      <c r="E54">
+        <v>-0.01322284858022049</v>
+      </c>
+      <c r="F54">
+        <v>0.1163317008521634</v>
+      </c>
+      <c r="G54">
+        <v>-0.005042190390541448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07415947366465289</v>
+        <v>0.08158939696718009</v>
       </c>
       <c r="C55">
-        <v>0.06505848821707809</v>
+        <v>0.06944198926193459</v>
       </c>
       <c r="D55">
-        <v>0.02727296556841804</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03293931637722426</v>
+      </c>
+      <c r="E55">
+        <v>-0.04598481551288369</v>
+      </c>
+      <c r="F55">
+        <v>0.06776069332404</v>
+      </c>
+      <c r="G55">
+        <v>0.03597337928504214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1530087432989712</v>
+        <v>0.1440229901069689</v>
       </c>
       <c r="C56">
-        <v>0.09351938289708767</v>
+        <v>0.1050710711582611</v>
       </c>
       <c r="D56">
-        <v>0.03190228458371805</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04086771101411688</v>
+      </c>
+      <c r="E56">
+        <v>-0.0540855974085815</v>
+      </c>
+      <c r="F56">
+        <v>0.05599308829224497</v>
+      </c>
+      <c r="G56">
+        <v>0.05137342167657375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.005332323004399909</v>
+        <v>0.002274170575993215</v>
       </c>
       <c r="C57">
-        <v>0.008435670266750343</v>
+        <v>0.004405155726975146</v>
       </c>
       <c r="D57">
-        <v>-0.03129409606269945</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02662318335387963</v>
+      </c>
+      <c r="E57">
+        <v>-0.001231344561690663</v>
+      </c>
+      <c r="F57">
+        <v>0.01030496039737543</v>
+      </c>
+      <c r="G57">
+        <v>-0.001926137569186356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05214074453104144</v>
+        <v>0.0366077897088193</v>
       </c>
       <c r="C58">
-        <v>0.06782548340002562</v>
+        <v>0.03081613618742769</v>
       </c>
       <c r="D58">
-        <v>-0.9649805988228183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.7050401095421795</v>
+      </c>
+      <c r="E58">
+        <v>-0.601967874448267</v>
+      </c>
+      <c r="F58">
+        <v>-0.3063971669664348</v>
+      </c>
+      <c r="G58">
+        <v>0.02584139831760675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1434913603970315</v>
+        <v>0.1466884440211934</v>
       </c>
       <c r="C59">
-        <v>-0.2224597348422304</v>
+        <v>-0.2050065885194124</v>
       </c>
       <c r="D59">
-        <v>-0.01360125317936141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02214311646195091</v>
+      </c>
+      <c r="E59">
+        <v>-0.01088754626761789</v>
+      </c>
+      <c r="F59">
+        <v>0.03736259147012766</v>
+      </c>
+      <c r="G59">
+        <v>-0.02401722593019033</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.310175340465998</v>
+        <v>0.2866959401817741</v>
       </c>
       <c r="C60">
-        <v>0.08113222719862721</v>
+        <v>0.09187449506733572</v>
       </c>
       <c r="D60">
-        <v>-0.02573033232014891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1396198028432785</v>
+      </c>
+      <c r="E60">
+        <v>0.2939546695472837</v>
+      </c>
+      <c r="F60">
+        <v>-0.1422055915850327</v>
+      </c>
+      <c r="G60">
+        <v>0.0405314570828986</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03330949701133475</v>
+        <v>0.03942729545338127</v>
       </c>
       <c r="C61">
-        <v>0.06270629496246946</v>
+        <v>0.06234903556034464</v>
       </c>
       <c r="D61">
-        <v>-0.004477039446226683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04053338562906279</v>
+      </c>
+      <c r="E61">
+        <v>0.006975966415986828</v>
+      </c>
+      <c r="F61">
+        <v>0.09076573391209371</v>
+      </c>
+      <c r="G61">
+        <v>0.002836694845343111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0147619462013262</v>
+        <v>0.01508716835976583</v>
       </c>
       <c r="C63">
-        <v>0.02711435517503168</v>
+        <v>0.02676082716987374</v>
       </c>
       <c r="D63">
-        <v>0.01639773788787489</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01578463515837096</v>
+      </c>
+      <c r="E63">
+        <v>-0.01129134177775945</v>
+      </c>
+      <c r="F63">
+        <v>0.09025816134933103</v>
+      </c>
+      <c r="G63">
+        <v>0.02097055192282369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04636913765644145</v>
+        <v>0.05267464090889562</v>
       </c>
       <c r="C64">
-        <v>0.02988156064419919</v>
+        <v>0.0463675231948903</v>
       </c>
       <c r="D64">
-        <v>0.0152255441968704</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009679904536665826</v>
+      </c>
+      <c r="E64">
+        <v>0.003159713877072155</v>
+      </c>
+      <c r="F64">
+        <v>0.09399520439371006</v>
+      </c>
+      <c r="G64">
+        <v>-0.01544918541045383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08696629834535544</v>
+        <v>0.07161005776147973</v>
       </c>
       <c r="C65">
-        <v>0.06225743654040448</v>
+        <v>0.04427457815729884</v>
       </c>
       <c r="D65">
-        <v>-0.009822302856151446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.06714124687733013</v>
+      </c>
+      <c r="E65">
+        <v>0.005203784627672631</v>
+      </c>
+      <c r="F65">
+        <v>0.04033945949062943</v>
+      </c>
+      <c r="G65">
+        <v>-0.00279807156177479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05954864880202917</v>
+        <v>0.05007851811407309</v>
       </c>
       <c r="C66">
-        <v>0.1208954310393492</v>
+        <v>0.09861247573182422</v>
       </c>
       <c r="D66">
-        <v>-0.01096503339568842</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06941325298678006</v>
+      </c>
+      <c r="E66">
+        <v>0.02001177627344912</v>
+      </c>
+      <c r="F66">
+        <v>0.09296175371393282</v>
+      </c>
+      <c r="G66">
+        <v>-0.0111750164367821</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06384886218943459</v>
+        <v>0.05401012118941406</v>
       </c>
       <c r="C67">
-        <v>0.02259952445871445</v>
+        <v>0.02758650466431456</v>
       </c>
       <c r="D67">
-        <v>0.01168170925307985</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007316651060253955</v>
+      </c>
+      <c r="E67">
+        <v>-0.008613385143683006</v>
+      </c>
+      <c r="F67">
+        <v>0.07584849438148772</v>
+      </c>
+      <c r="G67">
+        <v>0.01167768487170543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1159904629986583</v>
+        <v>0.148714625787506</v>
       </c>
       <c r="C68">
-        <v>-0.2877246481329789</v>
+        <v>-0.269210552541561</v>
       </c>
       <c r="D68">
-        <v>-0.02471557284106833</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.007014999431624544</v>
+      </c>
+      <c r="E68">
+        <v>-0.04171680017321115</v>
+      </c>
+      <c r="F68">
+        <v>0.0255800993234852</v>
+      </c>
+      <c r="G68">
+        <v>-0.005147984156819157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08199846533300405</v>
+        <v>0.0850978460319602</v>
       </c>
       <c r="C69">
-        <v>0.06076507457435851</v>
+        <v>0.07563475304979685</v>
       </c>
       <c r="D69">
-        <v>0.02945468695487031</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01155392725886843</v>
+      </c>
+      <c r="E69">
+        <v>-0.01657761267493438</v>
+      </c>
+      <c r="F69">
+        <v>0.1012031102091636</v>
+      </c>
+      <c r="G69">
+        <v>0.003265775828015341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1229163994911321</v>
+        <v>0.1376260657770244</v>
       </c>
       <c r="C71">
-        <v>-0.2384926299963812</v>
+        <v>-0.2386224717051592</v>
       </c>
       <c r="D71">
-        <v>-0.02611980492741661</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02190290511234457</v>
+      </c>
+      <c r="E71">
+        <v>-0.03954952781528704</v>
+      </c>
+      <c r="F71">
+        <v>0.0676698260998152</v>
+      </c>
+      <c r="G71">
+        <v>0.01859916855055179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07657197717785204</v>
+        <v>0.08826801750022217</v>
       </c>
       <c r="C72">
-        <v>0.05870784483166906</v>
+        <v>0.05727753433651258</v>
       </c>
       <c r="D72">
-        <v>0.04904900080320265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.006373382490489391</v>
+      </c>
+      <c r="E72">
+        <v>0.02396584130038266</v>
+      </c>
+      <c r="F72">
+        <v>0.08150244124962343</v>
+      </c>
+      <c r="G72">
+        <v>0.01356485541578512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4469512263837537</v>
+        <v>0.3717463096157553</v>
       </c>
       <c r="C73">
-        <v>0.08261829247260125</v>
+        <v>0.07814319908304299</v>
       </c>
       <c r="D73">
-        <v>-0.041172605511655</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2957134984637676</v>
+      </c>
+      <c r="E73">
+        <v>0.5248055933793656</v>
+      </c>
+      <c r="F73">
+        <v>-0.3319668815607633</v>
+      </c>
+      <c r="G73">
+        <v>0.1580993147016878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1197380861151708</v>
+        <v>0.1097576733617931</v>
       </c>
       <c r="C74">
-        <v>0.1151758590683947</v>
+        <v>0.1037878844258773</v>
       </c>
       <c r="D74">
-        <v>0.02384622255645251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01415973906447822</v>
+      </c>
+      <c r="E74">
+        <v>-0.05914248030848871</v>
+      </c>
+      <c r="F74">
+        <v>0.07320371568168133</v>
+      </c>
+      <c r="G74">
+        <v>0.05760967847365979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2694917375132448</v>
+        <v>0.2557591232055524</v>
       </c>
       <c r="C75">
-        <v>0.1260352168551291</v>
+        <v>0.1415655798518227</v>
       </c>
       <c r="D75">
-        <v>0.05424142082728694</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1058553717469897</v>
+      </c>
+      <c r="E75">
+        <v>-0.1221755574369573</v>
+      </c>
+      <c r="F75">
+        <v>0.01765150248825174</v>
+      </c>
+      <c r="G75">
+        <v>0.08432255989363947</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1209975659569252</v>
+        <v>0.1246231545865452</v>
       </c>
       <c r="C76">
-        <v>0.1047960231006914</v>
+        <v>0.104700620220063</v>
       </c>
       <c r="D76">
-        <v>0.03878867344379196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04460033692607404</v>
+      </c>
+      <c r="E76">
+        <v>-0.08007386689021322</v>
+      </c>
+      <c r="F76">
+        <v>0.07148243738143263</v>
+      </c>
+      <c r="G76">
+        <v>0.05334928995128154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0717157275874461</v>
+        <v>0.0650196446991113</v>
       </c>
       <c r="C77">
-        <v>0.05749265930197427</v>
+        <v>0.06295054499229323</v>
       </c>
       <c r="D77">
-        <v>-0.02743731442424535</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.059177155676081</v>
+      </c>
+      <c r="E77">
+        <v>-0.03204307993067347</v>
+      </c>
+      <c r="F77">
+        <v>0.1003031345655844</v>
+      </c>
+      <c r="G77">
+        <v>-0.1348612354170113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04594358961517537</v>
+        <v>0.04193346705507655</v>
       </c>
       <c r="C78">
-        <v>0.05049919674472402</v>
+        <v>0.05478473778924421</v>
       </c>
       <c r="D78">
-        <v>-0.006933537759884473</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05727702083454678</v>
+      </c>
+      <c r="E78">
+        <v>0.02208938820985863</v>
+      </c>
+      <c r="F78">
+        <v>0.09838812053215328</v>
+      </c>
+      <c r="G78">
+        <v>-0.009321889040425113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3.802413634001736e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.00038777832473621</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.007344088364526246</v>
+      </c>
+      <c r="E79">
+        <v>-0.003415698704610569</v>
+      </c>
+      <c r="F79">
+        <v>0.01076085104255325</v>
+      </c>
+      <c r="G79">
+        <v>-0.002313798435402762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05496452344219128</v>
+        <v>0.04015739003497881</v>
       </c>
       <c r="C80">
-        <v>0.05801580444625384</v>
+        <v>0.04744490948882489</v>
       </c>
       <c r="D80">
-        <v>-0.01554808911727853</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04139211132752425</v>
+      </c>
+      <c r="E80">
+        <v>0.000856286613561457</v>
+      </c>
+      <c r="F80">
+        <v>0.03507093573473051</v>
+      </c>
+      <c r="G80">
+        <v>-0.04649776180057524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1375250181146312</v>
+        <v>0.1413388943686723</v>
       </c>
       <c r="C81">
-        <v>0.07920757328214752</v>
+        <v>0.09188477051000417</v>
       </c>
       <c r="D81">
-        <v>0.03516085756100761</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07374396843967751</v>
+      </c>
+      <c r="E81">
+        <v>-0.1032156109152547</v>
+      </c>
+      <c r="F81">
+        <v>0.03686274081675006</v>
+      </c>
+      <c r="G81">
+        <v>0.05120092020993319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05599563869039394</v>
+        <v>0.1772307644920214</v>
       </c>
       <c r="C82">
-        <v>0.04039970612784447</v>
+        <v>0.1245962777833022</v>
       </c>
       <c r="D82">
-        <v>0.02179416621976145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.190229374184998</v>
+      </c>
+      <c r="E82">
+        <v>-0.06009090676959916</v>
+      </c>
+      <c r="F82">
+        <v>0.04948562277500873</v>
+      </c>
+      <c r="G82">
+        <v>-0.008974089072791234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02956597942511817</v>
+        <v>0.02823776101381261</v>
       </c>
       <c r="C83">
-        <v>0.01907453400715652</v>
+        <v>0.03206532933370673</v>
       </c>
       <c r="D83">
-        <v>-0.01757893876755256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03381396787983306</v>
+      </c>
+      <c r="E83">
+        <v>0.0085077283586905</v>
+      </c>
+      <c r="F83">
+        <v>0.05652299493220105</v>
+      </c>
+      <c r="G83">
+        <v>-0.03113006498450624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2480909472756499</v>
+        <v>0.2140817595784545</v>
       </c>
       <c r="C85">
-        <v>0.1234365055899308</v>
+        <v>0.1254124339500831</v>
       </c>
       <c r="D85">
-        <v>0.1157239055331655</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.110037434234768</v>
+      </c>
+      <c r="E85">
+        <v>-0.05198978327695168</v>
+      </c>
+      <c r="F85">
+        <v>-0.01613400268012797</v>
+      </c>
+      <c r="G85">
+        <v>0.1208159697131925</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01157594885025052</v>
+        <v>0.01242577881236316</v>
       </c>
       <c r="C86">
-        <v>0.02058756611544397</v>
+        <v>0.02379922020049677</v>
       </c>
       <c r="D86">
-        <v>-0.01225453939489874</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0798340553278466</v>
+      </c>
+      <c r="E86">
+        <v>0.01096538676642447</v>
+      </c>
+      <c r="F86">
+        <v>0.1655273834191474</v>
+      </c>
+      <c r="G86">
+        <v>-0.0284925696956689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0135754282564652</v>
+        <v>0.02019689771719715</v>
       </c>
       <c r="C87">
-        <v>0.02291126336376653</v>
+        <v>0.01504005860315938</v>
       </c>
       <c r="D87">
-        <v>-0.07907841723003009</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1002107897314442</v>
+      </c>
+      <c r="E87">
+        <v>-0.03637372433848702</v>
+      </c>
+      <c r="F87">
+        <v>0.1069793213392475</v>
+      </c>
+      <c r="G87">
+        <v>-0.04748713723631254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09837253590570424</v>
+        <v>0.09032204353399381</v>
       </c>
       <c r="C88">
-        <v>0.0633098042268127</v>
+        <v>0.06055672117457832</v>
       </c>
       <c r="D88">
-        <v>0.001546854479108241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01199809787610092</v>
+      </c>
+      <c r="E88">
+        <v>-0.01413503046016508</v>
+      </c>
+      <c r="F88">
+        <v>0.101955995812098</v>
+      </c>
+      <c r="G88">
+        <v>-0.04570888017344867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1929452788523429</v>
+        <v>0.2088529336086741</v>
       </c>
       <c r="C89">
-        <v>-0.3749905089793876</v>
+        <v>-0.371351992061103</v>
       </c>
       <c r="D89">
-        <v>0.02041219312301603</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02081063563858687</v>
+      </c>
+      <c r="E89">
+        <v>-0.007107797501598141</v>
+      </c>
+      <c r="F89">
+        <v>0.0779484817234177</v>
+      </c>
+      <c r="G89">
+        <v>-0.08587008237085536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.177394206109425</v>
+        <v>0.1991761110498567</v>
       </c>
       <c r="C90">
-        <v>-0.3488029569242744</v>
+        <v>-0.324857977122768</v>
       </c>
       <c r="D90">
-        <v>-0.01970018674507582</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01486424471607815</v>
+      </c>
+      <c r="E90">
+        <v>-0.05709672549125532</v>
+      </c>
+      <c r="F90">
+        <v>0.05666353826517971</v>
+      </c>
+      <c r="G90">
+        <v>-0.02854485162514683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2079165374460832</v>
+        <v>0.1917459350310493</v>
       </c>
       <c r="C91">
-        <v>0.1140782062191393</v>
+        <v>0.1308362636715982</v>
       </c>
       <c r="D91">
-        <v>0.05078116188912479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08802099950240112</v>
+      </c>
+      <c r="E91">
+        <v>-0.100684615524335</v>
+      </c>
+      <c r="F91">
+        <v>0.0446687767986829</v>
+      </c>
+      <c r="G91">
+        <v>0.05073549905075465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1802092380414283</v>
+        <v>0.1803331229701814</v>
       </c>
       <c r="C92">
-        <v>-0.2755969194057637</v>
+        <v>-0.2766342645403121</v>
       </c>
       <c r="D92">
-        <v>-0.008030232618402966</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004009619316007519</v>
+      </c>
+      <c r="E92">
+        <v>-0.07343100842643235</v>
+      </c>
+      <c r="F92">
+        <v>0.07298025298342117</v>
+      </c>
+      <c r="G92">
+        <v>-0.02275106365656969</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1873677513491928</v>
+        <v>0.2215400273291086</v>
       </c>
       <c r="C93">
-        <v>-0.3281621793233269</v>
+        <v>-0.3197190300482095</v>
       </c>
       <c r="D93">
-        <v>-0.01445504762095135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0001820068771314665</v>
+      </c>
+      <c r="E93">
+        <v>-0.04055383989869035</v>
+      </c>
+      <c r="F93">
+        <v>0.06142126332952022</v>
+      </c>
+      <c r="G93">
+        <v>0.01347384775706219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2696018286492575</v>
+        <v>0.3391432601924907</v>
       </c>
       <c r="C94">
-        <v>0.14420808571749</v>
+        <v>0.1879870201897832</v>
       </c>
       <c r="D94">
-        <v>0.07936868037024779</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3970163402542969</v>
+      </c>
+      <c r="E94">
+        <v>-0.3490255621816394</v>
+      </c>
+      <c r="F94">
+        <v>-0.3919089983527283</v>
+      </c>
+      <c r="G94">
+        <v>-0.2376803727989557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08249392242183569</v>
+        <v>0.08086278529752514</v>
       </c>
       <c r="C95">
-        <v>0.08230805477901175</v>
+        <v>0.08469637006257597</v>
       </c>
       <c r="D95">
-        <v>-0.07755339180734605</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1399089079366306</v>
+      </c>
+      <c r="E95">
+        <v>0.1582012614773923</v>
+      </c>
+      <c r="F95">
+        <v>0.01474573301837353</v>
+      </c>
+      <c r="G95">
+        <v>-0.8985658700624803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2095133821715184</v>
+        <v>0.1958981802867815</v>
       </c>
       <c r="C98">
-        <v>0.03639819169456472</v>
+        <v>0.04210618352748467</v>
       </c>
       <c r="D98">
-        <v>-0.03633460199081118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1325371278501777</v>
+      </c>
+      <c r="E98">
+        <v>0.1889599807576429</v>
+      </c>
+      <c r="F98">
+        <v>-0.05622499598190038</v>
+      </c>
+      <c r="G98">
+        <v>0.1023618164946228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01027628754082853</v>
+        <v>0.008001594634477888</v>
       </c>
       <c r="C101">
-        <v>0.02111958348575417</v>
+        <v>0.02294977814042855</v>
       </c>
       <c r="D101">
-        <v>0.01003969430494732</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01509155090334849</v>
+      </c>
+      <c r="E101">
+        <v>-0.01076637313746324</v>
+      </c>
+      <c r="F101">
+        <v>0.1055670199187121</v>
+      </c>
+      <c r="G101">
+        <v>-0.002696269730510249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.125619889416817</v>
+        <v>0.123374522461327</v>
       </c>
       <c r="C102">
-        <v>0.07352851437616381</v>
+        <v>0.09551881992658337</v>
       </c>
       <c r="D102">
-        <v>0.03711478585501328</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05128152400140708</v>
+      </c>
+      <c r="E102">
+        <v>-0.01496990859720276</v>
+      </c>
+      <c r="F102">
+        <v>0.0169990843987637</v>
+      </c>
+      <c r="G102">
+        <v>0.02071580593314979</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.005673365980747821</v>
+        <v>-0.003259202279896856</v>
       </c>
       <c r="C104">
-        <v>0.01031268049916609</v>
+        <v>0.004536231106813423</v>
       </c>
       <c r="D104">
-        <v>-0.02880611626534134</v>
+        <v>-0.01900727218828623</v>
+      </c>
+      <c r="E104">
+        <v>-0.003740906517528023</v>
+      </c>
+      <c r="F104">
+        <v>0.008663423448898332</v>
+      </c>
+      <c r="G104">
+        <v>-0.01197627105377342</v>
       </c>
     </row>
   </sheetData>
